--- a/my_package/traj_excel_10/tested_robot_traj_2_.xlsx
+++ b/my_package/traj_excel_10/tested_robot_traj_2_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.9903733673316458</v>
+        <v>0.9903733673316458</v>
       </c>
       <c r="C1" t="n">
-        <v>1.571050106399762</v>
+        <v>-0.0002537796048658035</v>
       </c>
       <c r="D1" t="n">
-        <v>1.40006462893066</v>
+        <v>-1.40006462893066</v>
       </c>
       <c r="E1" t="n">
-        <v>1.399810963551616</v>
+        <v>0.1709853632432805</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796390562869</v>
+        <v>1.570796390562869</v>
       </c>
       <c r="G1" t="n">
         <v>-0.5804230367656859</v>
@@ -449,19 +449,19 @@
         <v>0.2201727783259728</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.03574262259447</v>
+        <v>1.03574262259447</v>
       </c>
       <c r="C2" t="n">
-        <v>1.570888293771327</v>
+        <v>-9.196697643037226e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>1.398862850774126</v>
+        <v>-1.398862850774126</v>
       </c>
       <c r="E2" t="n">
-        <v>1.398771000953773</v>
+        <v>0.1720253258411236</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.57079639084348</v>
+        <v>1.57079639084348</v>
       </c>
       <c r="G2" t="n">
         <v>-0.5350537819232115</v>
@@ -472,19 +472,19 @@
         <v>0.4403455566519455</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.239026965236186</v>
+        <v>1.239026965236186</v>
       </c>
       <c r="C3" t="n">
-        <v>1.570163265916846</v>
+        <v>0.0006330608780510351</v>
       </c>
       <c r="D3" t="n">
-        <v>1.393478087873858</v>
+        <v>-1.393478087873858</v>
       </c>
       <c r="E3" t="n">
-        <v>1.394111279037471</v>
+        <v>0.1766850477574261</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796392100804</v>
+        <v>1.570796392100804</v>
       </c>
       <c r="G3" t="n">
         <v>-0.3317694411649427</v>
@@ -495,19 +495,19 @@
         <v>0.6605183349779182</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.525028734600179</v>
+        <v>1.525028734600179</v>
       </c>
       <c r="C4" t="n">
-        <v>1.569143220563007</v>
+        <v>0.001653106231889857</v>
       </c>
       <c r="D4" t="n">
-        <v>1.385902237726871</v>
+        <v>-1.385902237726871</v>
       </c>
       <c r="E4" t="n">
-        <v>1.387555492716261</v>
+        <v>0.1832408340786359</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.57079639386974</v>
+        <v>1.57079639386974</v>
       </c>
       <c r="G4" t="n">
         <v>-0.04576767445078167</v>
@@ -518,19 +518,19 @@
         <v>0.880691113303891</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.728313077241895</v>
+        <v>1.728313077241895</v>
       </c>
       <c r="C5" t="n">
-        <v>1.568418192708525</v>
+        <v>0.002378134086371267</v>
       </c>
       <c r="D5" t="n">
-        <v>1.380517474826603</v>
+        <v>-1.380517474826603</v>
       </c>
       <c r="E5" t="n">
-        <v>1.382895770799958</v>
+        <v>0.1879005559949384</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796395127064</v>
+        <v>1.570796395127064</v>
       </c>
       <c r="G5" t="n">
         <v>0.1575166663074876</v>
@@ -541,19 +541,19 @@
         <v>1.100863891629864</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.77368233250472</v>
+        <v>1.77368233250472</v>
       </c>
       <c r="C6" t="n">
-        <v>1.56825638008009</v>
+        <v>0.002539946714806697</v>
       </c>
       <c r="D6" t="n">
-        <v>1.379315696670069</v>
+        <v>-1.379315696670069</v>
       </c>
       <c r="E6" t="n">
-        <v>1.381855808202115</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796395407675</v>
+        <v>1.570796395407675</v>
       </c>
       <c r="G6" t="n">
         <v>0.2028859211499613</v>
